--- a/CIS Benchmark Mappings.xlsx
+++ b/CIS Benchmark Mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rxsafeway-my.sharepoint.com/personal/jkin315_safeway_com/Documents/Documents/IADSPM/Dashboard Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{FC091834-E64C-4C5B-A7D2-093517D4D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{165D2C13-4ABB-43E8-87A9-3658AB513C1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0619026-850B-4765-A32E-2328A4DF2A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A44DA74-BF2C-4A6D-93D4-7DDA264CCBEE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="1753">
   <si>
     <t>Section #</t>
   </si>
@@ -4458,6 +4458,846 @@
   </si>
   <si>
     <t>Red Hat Enterprise Linux 7</t>
+  </si>
+  <si>
+    <t>MacOS</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Ensure All Apple-provided Software Is Current</t>
+  </si>
+  <si>
+    <t>Ensure Auto Update Is Enabled</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Ensure Download New Updates When Available Is Enabled</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Ensure Install of macOS Updates Is Enabled</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Ensure Install Application Updates from the App Store Is Enabled</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Ensure Install Security Responses and System Files Is Enabled</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Ensure Software Update Deferment Is Less Than or Equal to 30 Days</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Ensure the System is Managed by a Mobile Device Management (MDM) Software</t>
+  </si>
+  <si>
+    <t>2.1.1.1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Audit iCloud Keychain</t>
+  </si>
+  <si>
+    <t>T1555.001</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>Audit iCloud Drive</t>
+  </si>
+  <si>
+    <t>T1537</t>
+  </si>
+  <si>
+    <t>2.1.1.3</t>
+  </si>
+  <si>
+    <t>Ensure iCloud Drive Document and Desktop Sync Is Disabled</t>
+  </si>
+  <si>
+    <t>2.1.1.4</t>
+  </si>
+  <si>
+    <t>Audit Security Keys Used With AppleIDs</t>
+  </si>
+  <si>
+    <t>2.1.1.5</t>
+  </si>
+  <si>
+    <t>Audit Freeform Sync to iCloud</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Audit App Store Password Settings</t>
+  </si>
+  <si>
+    <t>T1078.004</t>
+  </si>
+  <si>
+    <t>Ensure Firewall Is Enabled</t>
+  </si>
+  <si>
+    <t>T1562.004</t>
+  </si>
+  <si>
+    <t>Ensure Firewall Stealth Mode Is Enabled</t>
+  </si>
+  <si>
+    <t>Ensure AirDrop Is Disabled</t>
+  </si>
+  <si>
+    <t>T048.003</t>
+  </si>
+  <si>
+    <t>Ensure AirPlay Receiver Is Disabled</t>
+  </si>
+  <si>
+    <t>T1204.002</t>
+  </si>
+  <si>
+    <t>Ensure Set Time and Date Automatically Is Enabled</t>
+  </si>
+  <si>
+    <t>T1070.002</t>
+  </si>
+  <si>
+    <t>Ensure Time Is Set Within Appropriate Limits</t>
+  </si>
+  <si>
+    <t>2.3.3.1</t>
+  </si>
+  <si>
+    <t>Ensure DVD or CD Sharing Is Disabled</t>
+  </si>
+  <si>
+    <t>T1025</t>
+  </si>
+  <si>
+    <t>2.3.3.2</t>
+  </si>
+  <si>
+    <t>Ensure Screen Sharing Is Disabled</t>
+  </si>
+  <si>
+    <t>T1021.005</t>
+  </si>
+  <si>
+    <t>2.3.3.3</t>
+  </si>
+  <si>
+    <t>Ensure File Sharing Is Disabled</t>
+  </si>
+  <si>
+    <t>T048.001</t>
+  </si>
+  <si>
+    <t>2.3.3.4</t>
+  </si>
+  <si>
+    <t>Ensure Printer Sharing Is Disabled</t>
+  </si>
+  <si>
+    <t>T1569.001</t>
+  </si>
+  <si>
+    <t>2.3.3.5</t>
+  </si>
+  <si>
+    <t>Ensure Remote Login Is Disabled</t>
+  </si>
+  <si>
+    <t>T1021.004</t>
+  </si>
+  <si>
+    <t>2.3.3.6</t>
+  </si>
+  <si>
+    <t>Ensure Remote Management Is Disabled</t>
+  </si>
+  <si>
+    <t>2.3.3.7</t>
+  </si>
+  <si>
+    <t>Ensure Remote Apple Events Is Disabled</t>
+  </si>
+  <si>
+    <t>T1059.002</t>
+  </si>
+  <si>
+    <t>2.3.3.8</t>
+  </si>
+  <si>
+    <t>Ensure Internet Sharing Is Disabled</t>
+  </si>
+  <si>
+    <t>2.3.3.9</t>
+  </si>
+  <si>
+    <t>Ensure Content Caching Is Disabled</t>
+  </si>
+  <si>
+    <t>T1565.002</t>
+  </si>
+  <si>
+    <t>2.3.3.10</t>
+  </si>
+  <si>
+    <t>Ensure Media Sharing Is Disabled</t>
+  </si>
+  <si>
+    <t>T1204.001</t>
+  </si>
+  <si>
+    <t>2.3.3.11</t>
+  </si>
+  <si>
+    <t>Ensure Bluetooth Sharing Is Disabled</t>
+  </si>
+  <si>
+    <t>T1011.001</t>
+  </si>
+  <si>
+    <t>2.3.3.12</t>
+  </si>
+  <si>
+    <t>Ensure Computer Name Does Not Contain PII or Protected Organizational Information</t>
+  </si>
+  <si>
+    <t>2.3.4.1</t>
+  </si>
+  <si>
+    <t>Ensure Backup Automatically is Enabled If Time Machine Is Enabled</t>
+  </si>
+  <si>
+    <t>T1490</t>
+  </si>
+  <si>
+    <t>Ensure Time Machine Volumes Are Encrypted If Time Machine Is Enabled</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>Ensure Show Wi-Fi status in Menu Bar Is Enabled</t>
+  </si>
+  <si>
+    <t>T1592.001</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>Ensure Show Bluetooth Status in Menu Bar Is Enabled</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>Audit Siri Settings</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>Ensure Listen for "Hey Siri" Is Disabled</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>2.6.1.1</t>
+  </si>
+  <si>
+    <t>Ensure Location Services Is Enabled</t>
+  </si>
+  <si>
+    <t>2.6.1.2</t>
+  </si>
+  <si>
+    <t>Ensure Location Services Is in the Menu Bar</t>
+  </si>
+  <si>
+    <t>2.6.1.3</t>
+  </si>
+  <si>
+    <t>Audit Location Services Access</t>
+  </si>
+  <si>
+    <t>2.6.2</t>
+  </si>
+  <si>
+    <t>2.6.2.1</t>
+  </si>
+  <si>
+    <t>Audit Full Disk Access for Applications</t>
+  </si>
+  <si>
+    <t>T1036.005</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.6.3</t>
+  </si>
+  <si>
+    <t>Ensure Sending Diagnostic and Usage Data to Apple Is Disabled</t>
+  </si>
+  <si>
+    <t>2.6.4</t>
+  </si>
+  <si>
+    <t>Ensure Limit Ad Tracking Is Enabled</t>
+  </si>
+  <si>
+    <t>2.6.5</t>
+  </si>
+  <si>
+    <t>Ensure Gatekeeper Is Enabled</t>
+  </si>
+  <si>
+    <t>T1553.001</t>
+  </si>
+  <si>
+    <t>2.6.6</t>
+  </si>
+  <si>
+    <t>Ensure FileVault Is Enabled</t>
+  </si>
+  <si>
+    <t>2.6.8</t>
+  </si>
+  <si>
+    <t>Ensure an Administrator Password Is Required to Access System-Wide Preferences</t>
+  </si>
+  <si>
+    <t>T1078.001</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>Ensure Screen Saver Corners Are Secure</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.8.1</t>
+  </si>
+  <si>
+    <t>Audit Universal Control Settings</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
+  </si>
+  <si>
+    <t>2.9.1.1</t>
+  </si>
+  <si>
+    <t>Ensure the OS Is Not Active When Resuming from Standby (Intel)</t>
+  </si>
+  <si>
+    <t>2.9.1.2</t>
+  </si>
+  <si>
+    <t>Ensure the OS Is Not Active When Resuming from Sleep and Display Sleep (Apple Silicon)</t>
+  </si>
+  <si>
+    <t>2.9.1.3</t>
+  </si>
+  <si>
+    <t>Ensure FileVault is Locked on Sleep</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Ensure Power Nap Is Disabled for Intel Macs</t>
+  </si>
+  <si>
+    <t>T1205.001</t>
+  </si>
+  <si>
+    <t>2.9.2</t>
+  </si>
+  <si>
+    <t>Ensure Wake for Network Access Is Disabled</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.10.1</t>
+  </si>
+  <si>
+    <t>Ensure an Inactivity Interval of 20 Minutes Or Less for the Screen Saver Is Enabled</t>
+  </si>
+  <si>
+    <t>2.10.2</t>
+  </si>
+  <si>
+    <t>Ensure a Password is Required to Wake the Computer From Sleep or Screen Saver Is Enabled</t>
+  </si>
+  <si>
+    <t>2.10.3</t>
+  </si>
+  <si>
+    <t>Ensure a Custom Message for the Login Screen Is Enabled</t>
+  </si>
+  <si>
+    <t>2.10.4</t>
+  </si>
+  <si>
+    <t>Ensure Login Window Displays as Name and Password Is Enabled</t>
+  </si>
+  <si>
+    <t>2.10.5</t>
+  </si>
+  <si>
+    <t>Ensure Show Password Hints Is Disabled</t>
+  </si>
+  <si>
+    <t>T1110.001</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.11.1</t>
+  </si>
+  <si>
+    <t>Ensure Users' Accounts Do Not Have a Password Hint</t>
+  </si>
+  <si>
+    <t>2.11.2</t>
+  </si>
+  <si>
+    <t>Audit Touch ID and Wallet &amp; Apple Pay Settings</t>
+  </si>
+  <si>
+    <t>T1078.002</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.12.1</t>
+  </si>
+  <si>
+    <t>Ensure Guest Account Is Disabled</t>
+  </si>
+  <si>
+    <t>2.12.2</t>
+  </si>
+  <si>
+    <t>Ensure Guest Access to Shared Folders Is Disabled</t>
+  </si>
+  <si>
+    <t>2.12.3</t>
+  </si>
+  <si>
+    <t>Ensure Automatic Login Is Disabled</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.13.1</t>
+  </si>
+  <si>
+    <t>Audit Passwords System Preference Setting</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.14.1</t>
+  </si>
+  <si>
+    <t>Audit Notification &amp; Focus Settings</t>
+  </si>
+  <si>
+    <t>T1589.002</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.15.1</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.16.1</t>
+  </si>
+  <si>
+    <t>Audit Wallet &amp; Apple Pay Settings</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.17.1</t>
+  </si>
+  <si>
+    <t>Audit Internet Accounts for Authorized Use</t>
+  </si>
+  <si>
+    <t>T1590.001</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.18.1</t>
+  </si>
+  <si>
+    <t>Ensure On-Device Dictation Is Enabled</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Ensure Security Auditing Is Enabled</t>
+  </si>
+  <si>
+    <t>T1562.006</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Ensure Security Auditing Flags For User-Attributable Events Are Configured Per Local Organizational Requirements</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Ensure install.log Is Retained for 365 or More Days and No Maximum Size</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Ensure Security Auditing Retention Is Enabled</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Ensure Access to Audit Records Is Controlled</t>
+  </si>
+  <si>
+    <t>T1222.002</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>Ensure Firewall Logging Is Enabled and Configured</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>Audit Software Inventory</t>
+  </si>
+  <si>
+    <t>T1518.001</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Ensure Bonjour Advertising Services Is Disabled</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Ensure HTTP Server Is Disabled</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Ensure NFS Server Is Disabled</t>
+  </si>
+  <si>
+    <t>Ensure Home Folders Are Secure</t>
+  </si>
+  <si>
+    <t>Ensure System Integrity Protection Status (SIP) Is Enabled</t>
+  </si>
+  <si>
+    <t>T1542.001</t>
+  </si>
+  <si>
+    <t>Ensure Apple Mobile File Integrity (AMFI) Is Enabled</t>
+  </si>
+  <si>
+    <t>T1553.002</t>
+  </si>
+  <si>
+    <t>Ensure Sealed System Volume (SSV) Is Enabled</t>
+  </si>
+  <si>
+    <t>Ensure Appropriate Permissions Are Enabled for System Wide Applications</t>
+  </si>
+  <si>
+    <t>Ensure No World Writable Files Exist in the System Folder</t>
+  </si>
+  <si>
+    <t>Ensure No World Writable Files Exist in the Library Folder</t>
+  </si>
+  <si>
+    <t>Ensure Password Account Lockout Threshold Is Configured</t>
+  </si>
+  <si>
+    <t>Ensure Password Minimum Length Is Configured</t>
+  </si>
+  <si>
+    <t>Ensure Complex Password Must Contain Alphabetic Characters Is Configured</t>
+  </si>
+  <si>
+    <t>5.2.4</t>
+  </si>
+  <si>
+    <t>Ensure Complex Password Must Contain Numeric Character Is Configured</t>
+  </si>
+  <si>
+    <t>5.2.5</t>
+  </si>
+  <si>
+    <t>Ensure Complex Password Must Contain Special Character Is Configured</t>
+  </si>
+  <si>
+    <t>5.2.6</t>
+  </si>
+  <si>
+    <t>Ensure Complex Password Must Contain Uppercase and Lowercase Characters Is Configured</t>
+  </si>
+  <si>
+    <t>5.2.7</t>
+  </si>
+  <si>
+    <t>Ensure Password Age Is Configured</t>
+  </si>
+  <si>
+    <t>5.2.8</t>
+  </si>
+  <si>
+    <t>Ensure Password History Is Configured</t>
+  </si>
+  <si>
+    <t>Ensure all user storage APFS volumes are encrypted</t>
+  </si>
+  <si>
+    <t>Ensure all user storage CoreStorage volumes are encrypted</t>
+  </si>
+  <si>
+    <t>Ensure the Sudo Timeout Period Is Set to Zero</t>
+  </si>
+  <si>
+    <t>T1548.003</t>
+  </si>
+  <si>
+    <t>Ensure a Separate Timestamp Is Enabled for Each User/tty Combo</t>
+  </si>
+  <si>
+    <t>Ensure the "root" Account Is Disabled</t>
+  </si>
+  <si>
+    <t>Ensure an Administrator Account Cannot Login to Another User's Active and Locked Session</t>
+  </si>
+  <si>
+    <t>Ensure a Login Window Banner Exists</t>
+  </si>
+  <si>
+    <t>Ensure Legacy EFI Is Valid and Updating</t>
+  </si>
+  <si>
+    <t>Ensure the Guest Home Folder Does Not Exist</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Ensure Show All Filename Extensions Setting is Enabled</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Ensure Protect Mail Activity in Mail Is Enabled</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>Ensure Automatic Opening of Safe Files in Safari Is Disabled</t>
+  </si>
+  <si>
+    <t>6.3.2</t>
+  </si>
+  <si>
+    <t>Audit History and Remove History Items</t>
+  </si>
+  <si>
+    <t>6.3.3</t>
+  </si>
+  <si>
+    <t>Ensure Warn When Visiting A Fraudulent Website in Safari Is Enabled</t>
+  </si>
+  <si>
+    <t>6.3.4</t>
+  </si>
+  <si>
+    <t>Ensure Prevent Cross-site Tracking in Safari Is Enabled</t>
+  </si>
+  <si>
+    <t>6.3.5</t>
+  </si>
+  <si>
+    <t>Audit Hide IP Address in Safari Setting</t>
+  </si>
+  <si>
+    <t>6.3.6</t>
+  </si>
+  <si>
+    <t>Ensure Advertising Privacy Protection in Safari Is Enabled</t>
+  </si>
+  <si>
+    <t>6.3.7</t>
+  </si>
+  <si>
+    <t>Ensure Show Full Website Address in Safari Is Enabled</t>
+  </si>
+  <si>
+    <t>6.3.8</t>
+  </si>
+  <si>
+    <t>Audit Autofill</t>
+  </si>
+  <si>
+    <t>6.3.9</t>
+  </si>
+  <si>
+    <t>Ensure Pop-up Windows Are Blocked</t>
+  </si>
+  <si>
+    <t>6.3.10</t>
+  </si>
+  <si>
+    <t>Ensure Javascript Is Enabled</t>
+  </si>
+  <si>
+    <t>6.3.11</t>
+  </si>
+  <si>
+    <t>Ensure Show Status Bar Is Enabled</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.4.1</t>
+  </si>
+  <si>
+    <t>Ensure Secure Keyboard Entry Terminal.app Is Enabled</t>
+  </si>
+  <si>
+    <t>T1056.001</t>
+  </si>
+  <si>
+    <t>T1567.002</t>
+  </si>
+  <si>
+    <t>T1562.001</t>
+  </si>
+  <si>
+    <t>T1048.001</t>
+  </si>
+  <si>
+    <t>T1078.003</t>
+  </si>
+  <si>
+    <t>T1589.003</t>
+  </si>
+  <si>
+    <t>T1590.002</t>
+  </si>
+  <si>
+    <t>T1498.002</t>
+  </si>
+  <si>
+    <t>T1048.002</t>
+  </si>
+  <si>
+    <t>T1110.002</t>
+  </si>
+  <si>
+    <t>T1590.004</t>
+  </si>
+  <si>
+    <t>T1543.004</t>
+  </si>
+  <si>
+    <t>T1048.003</t>
+  </si>
+  <si>
+    <t>T1590.005</t>
+  </si>
+  <si>
+    <t>T1548.004</t>
+  </si>
+  <si>
+    <t>T1110.003</t>
   </si>
 </sst>
 </file>
@@ -4511,7 +5351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4519,6 +5359,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4854,9 +5695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C92A6CD-8B8E-4000-B369-F72F091CD094}">
-  <dimension ref="A1:F748"/>
+  <dimension ref="A1:F1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
+      <selection activeCell="A749" sqref="A749:F1045"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -19784,6 +20627,5946 @@
         <v>908</v>
       </c>
     </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C749" t="s">
+        <v>4</v>
+      </c>
+      <c r="D749" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E749" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F749" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C750" t="s">
+        <v>20</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F750" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E751" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F751" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F752" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F753" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F754" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F755" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F756" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D757" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F757" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F758" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F760" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F761" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B763" t="s">
+        <v>27</v>
+      </c>
+      <c r="C763" t="s">
+        <v>28</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B764" t="s">
+        <v>27</v>
+      </c>
+      <c r="C764" t="s">
+        <v>30</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F764" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B765" t="s">
+        <v>107</v>
+      </c>
+      <c r="C765" t="s">
+        <v>108</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B766" t="s">
+        <v>107</v>
+      </c>
+      <c r="C766" t="s">
+        <v>110</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B767" t="s">
+        <v>120</v>
+      </c>
+      <c r="C767" t="s">
+        <v>121</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B768" t="s">
+        <v>120</v>
+      </c>
+      <c r="C768" t="s">
+        <v>123</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B769" t="s">
+        <v>125</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B770" t="s">
+        <v>125</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F770" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B771" t="s">
+        <v>125</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E771" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B772" t="s">
+        <v>125</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F772" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B773" t="s">
+        <v>125</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B774" t="s">
+        <v>125</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B775" t="s">
+        <v>125</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F775" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B776" t="s">
+        <v>125</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B777" t="s">
+        <v>125</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F777" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B778" t="s">
+        <v>125</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F778" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B779" t="s">
+        <v>125</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F779" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B780" t="s">
+        <v>125</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F780" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B781" t="s">
+        <v>126</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F781" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B782" t="s">
+        <v>126</v>
+      </c>
+      <c r="C782" t="s">
+        <v>127</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F782" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F784" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F785" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F786" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F787" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F788" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F789" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F790" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F791" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F792" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F794" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F795" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F796" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F797" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F798" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F803" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F804" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F805" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E806" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F806" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F807" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F808" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F809" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F810" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F811" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F812" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F813" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F814" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F815" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E816" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F816" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F817" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E818" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F818" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E820" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F820" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F821" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E823" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F823" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F824" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F825" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E826" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F826" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E827" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F827" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F828" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B829" t="s">
+        <v>237</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E829" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F829" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B830" t="s">
+        <v>237</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F830" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B831" t="s">
+        <v>237</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B832" t="s">
+        <v>237</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E832" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F832" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B833" t="s">
+        <v>237</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E833" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F833" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B834" t="s">
+        <v>237</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E834" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F834" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B835" t="s">
+        <v>237</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E835" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B836" t="s">
+        <v>239</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E836" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F836" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B837" t="s">
+        <v>239</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E837" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F837" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B838" t="s">
+        <v>239</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F838" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B839" t="s">
+        <v>239</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E839" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F839" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B840" t="s">
+        <v>239</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F840" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B841" t="s">
+        <v>239</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F841" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B842" t="s">
+        <v>239</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F842" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B843" t="s">
+        <v>239</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F843" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B844" t="s">
+        <v>241</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F844" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B845" t="s">
+        <v>241</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F845" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B846" t="s">
+        <v>236</v>
+      </c>
+      <c r="C846" t="s">
+        <v>243</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E846" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F846" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B847" t="s">
+        <v>236</v>
+      </c>
+      <c r="C847" t="s">
+        <v>245</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F847" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B848" t="s">
+        <v>236</v>
+      </c>
+      <c r="C848" t="s">
+        <v>247</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B849" t="s">
+        <v>236</v>
+      </c>
+      <c r="C849" t="s">
+        <v>249</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B850" t="s">
+        <v>236</v>
+      </c>
+      <c r="C850" t="s">
+        <v>251</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F850" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B851" t="s">
+        <v>236</v>
+      </c>
+      <c r="C851" t="s">
+        <v>253</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F851" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B852" t="s">
+        <v>236</v>
+      </c>
+      <c r="C852" t="s">
+        <v>255</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F852" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F853" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D854" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F854" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F856" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F857" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F858" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E859" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F859" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E860" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F860" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E862" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F862" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E863" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F863" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E864" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F864" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E865" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F865" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E866" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F866" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C867" t="s">
+        <v>4</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E867" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F867" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C868" t="s">
+        <v>20</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E868" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F868" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F869" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F870" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E871" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F871" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F872" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E873" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F873" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E874" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F874" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E875" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F875" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E877" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F877" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E878" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F878" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B879" t="s">
+        <v>107</v>
+      </c>
+      <c r="C879" t="s">
+        <v>108</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E879" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F879" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B880" t="s">
+        <v>120</v>
+      </c>
+      <c r="C880" t="s">
+        <v>121</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E880" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F880" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B881" t="s">
+        <v>120</v>
+      </c>
+      <c r="C881" t="s">
+        <v>123</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E881" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F881" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B882" t="s">
+        <v>125</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E882" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F882" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B883" t="s">
+        <v>125</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E883" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F883" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B884" t="s">
+        <v>125</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E884" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F884" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B885" t="s">
+        <v>125</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F885" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B886" t="s">
+        <v>125</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F886" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B887" t="s">
+        <v>125</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E887" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F887" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E888" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F888" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E889" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F889" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E890" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E891" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F891" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D892" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E892" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E893" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F893" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F894" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E895" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F897" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E898" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F898" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D899" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E899" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F899" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E900" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F900" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F901" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E902" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F902" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E903" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F903" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E904" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F904" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F905" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F906" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E907" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F907" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E908" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F908" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E909" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F909" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E910" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F910" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E911" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F911" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E912" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F912" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B913" t="s">
+        <v>239</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E913" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F913" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B914" t="s">
+        <v>239</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E914" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F914" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B915" t="s">
+        <v>239</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E915" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F915" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B916" t="s">
+        <v>239</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E916" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F916" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B917" t="s">
+        <v>239</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E917" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F917" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B918" t="s">
+        <v>239</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E918" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F918" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B919" t="s">
+        <v>239</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E919" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F919" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B920" t="s">
+        <v>239</v>
+      </c>
+      <c r="C920" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E920" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F920" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B921" t="s">
+        <v>236</v>
+      </c>
+      <c r="C921" t="s">
+        <v>247</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E921" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F921" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B922" t="s">
+        <v>236</v>
+      </c>
+      <c r="C922" t="s">
+        <v>249</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E922" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F922" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B923" t="s">
+        <v>236</v>
+      </c>
+      <c r="C923" t="s">
+        <v>251</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E923" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F923" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E924" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F924" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E925" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F925" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E926" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F926" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E927" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F927" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E928" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F928" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F929" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E930" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F930" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F931" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E932" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F932" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C933" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F933" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E934" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F934" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F935" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E936" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F936" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C937" t="s">
+        <v>4</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F937" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C938" t="s">
+        <v>20</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F938" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F939" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F940" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C941" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F941" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C942" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D942" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E942" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F942" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C943" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E943" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F943" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C944" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E944" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F944" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B945" t="s">
+        <v>107</v>
+      </c>
+      <c r="C945" t="s">
+        <v>108</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F945" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B946" t="s">
+        <v>120</v>
+      </c>
+      <c r="C946" t="s">
+        <v>123</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E946" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F946" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B947" t="s">
+        <v>125</v>
+      </c>
+      <c r="C947" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E947" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F947" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B948" t="s">
+        <v>125</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E948" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F948" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E949" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F949" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F950" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E951" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F951" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E952" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E953" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F953" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C954" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E954" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F954" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E955" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F955" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C956" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E956" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F956" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E957" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F957" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E958" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F958" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E959" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F959" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E960" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F960" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A961" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E961" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F961" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A962" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E962" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F962" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A963" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E963" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F963" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E964" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F964" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E965" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F965" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B966" t="s">
+        <v>239</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E966" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F966" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B967" t="s">
+        <v>239</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E967" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F967" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B968" t="s">
+        <v>239</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E968" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F968" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B969" t="s">
+        <v>239</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E969" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F969" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B970" t="s">
+        <v>239</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E970" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F970" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B971" t="s">
+        <v>239</v>
+      </c>
+      <c r="C971" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E971" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F971" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B972" t="s">
+        <v>239</v>
+      </c>
+      <c r="C972" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E972" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F972" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A973" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B973" t="s">
+        <v>239</v>
+      </c>
+      <c r="C973" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E973" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F973" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A974" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B974" t="s">
+        <v>236</v>
+      </c>
+      <c r="C974" t="s">
+        <v>249</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E974" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F974" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A975" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E975" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F975" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A976" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D976" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E976" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F976" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C977" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E977" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F977" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D978" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E978" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F978" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E979" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F979" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A980" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C980" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E980" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F980" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A981" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C981" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E981" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F981" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C982" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E982" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F982" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E983" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F983" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C984" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E984" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F984" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C985" t="s">
+        <v>4</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E985" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F985" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A986" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C986" t="s">
+        <v>20</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E986" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F986" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A987" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E987" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F987" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A988" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E988" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F988" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A989" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F989" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A990" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E990" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F990" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A991" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C991" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D991" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E991" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F991" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C992" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E992" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F992" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B993" t="s">
+        <v>125</v>
+      </c>
+      <c r="C993" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E993" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F993" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A994" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B994" t="s">
+        <v>125</v>
+      </c>
+      <c r="C994" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E994" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F994" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E995" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F995" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C996" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E996" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F996" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C997" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E997" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F997" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C998" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D998" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E998" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F998" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C999" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E999" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F999" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1000" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1001" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1004" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1006" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1007" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1008" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1009" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1010" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1012" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1013" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1014" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1015" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1016" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1017" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1018" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1019" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1020" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1021" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1022" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1023" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1024" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1025" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1026" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1027" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1028" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1029" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1030" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1031" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1032" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1033" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1034" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1035" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1036" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1037" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1038" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1039" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1040" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1042" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1043" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1044" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1045" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1752</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F452" xr:uid="{9C92A6CD-8B8E-4000-B369-F72F091CD094}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CIS Benchmark Mappings.xlsx
+++ b/CIS Benchmark Mappings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rxsafeway-my.sharepoint.com/personal/jkin315_safeway_com/Documents/Documents/IADSPM/Dashboard Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0619026-850B-4765-A32E-2328A4DF2A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E0619026-850B-4765-A32E-2328A4DF2A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B822150-C20E-4587-AB42-25F035E91816}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A44DA74-BF2C-4A6D-93D4-7DDA264CCBEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$1131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6551" uniqueCount="1888">
   <si>
     <t>Section #</t>
   </si>
@@ -4466,9 +4466,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Level 1</t>
-  </si>
-  <si>
     <t>Ensure All Apple-provided Software Is Current</t>
   </si>
   <si>
@@ -4514,9 +4511,6 @@
     <t>2.1.1.1</t>
   </si>
   <si>
-    <t>Level 2</t>
-  </si>
-  <si>
     <t>Audit iCloud Keychain</t>
   </si>
   <si>
@@ -5298,6 +5292,417 @@
   </si>
   <si>
     <t>T1110.003</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Ensure that 'Multi-Factor Auth Status' is 'Enabled' for all Privileged Users</t>
+  </si>
+  <si>
+    <t>Ensure that 'Multi-Factor Auth Status' is 'Enabled' for all Non-Privileged Users</t>
+  </si>
+  <si>
+    <t>Ensure guest users are reviewed on a monthly basis</t>
+  </si>
+  <si>
+    <t>Ensure that 'Restore multi-factor authentication on all remembered devices' is Enabled</t>
+  </si>
+  <si>
+    <t>Ensure that 'Number of days before users are asked to re-confirm their authentication information' is not set to '0'</t>
+  </si>
+  <si>
+    <t>Ensure that 'Notify users on password resets?' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>Ensure That 'Notify all admins when other admins reset their password?' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Ensure That 'Guest users access restrictions' is set to 'Guest user access is restricted to properties and memberships of their own directory objects''</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>Ensure that 'Guest invite restrictions' is set to "Only users assigned to specific admin roles can invite guest users"</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>Ensure That 'Restrict access to Azure AD administration portal' is Set to "Yes"</t>
+  </si>
+  <si>
+    <t>T1538</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>Ensure that 'Users can create security groups in Azure portals, API or PowerShell' is set to 'No'</t>
+  </si>
+  <si>
+    <t>T1578</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>Ensure that 'Owners can manage group membership requests in the Access Panel' is set to 'No'</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>Ensure that 'Users can create Microsoft 365 groups in Azure portals, API or PowerShell' is set to 'No'</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>Ensure that 'Require Multi-Factor Authentication to register or join devices with Azure AD' is set to 'Yes'</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>Ensure That No Custom Subscription Owner Roles Are Created</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for Servers is set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for App Service is set to 'On'</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for Azure SQL Databases is set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for SQL servers on machines is set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for Storage is set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for Kubernetes is set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for Container Registries is set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for Key Vault is set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for Endpoint (WDATP) integration with Microsoft Defender for Cloud is selected</t>
+  </si>
+  <si>
+    <t>Ensure that Microsoft Defender for Cloud Apps (MCAS) Integration with Microsoft Defender for Cloud is Selected</t>
+  </si>
+  <si>
+    <t>Ensure That Auto provisioning of 'Log Analytics agent for Azure VMs' is Set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure That Storage Account Access Keys are Periodically Regenerated</t>
+  </si>
+  <si>
+    <t>Ensure Storage Logging is Enabled for Queue Service for 'Read', 'Write', and 'Delete' requests</t>
+  </si>
+  <si>
+    <t>Ensure that Shared Access Signature Tokens Expire Within an Hour</t>
+  </si>
+  <si>
+    <t>Ensure that 'Public access level' is set to Private for blob containers</t>
+  </si>
+  <si>
+    <t>T1213</t>
+  </si>
+  <si>
+    <t>Ensure Default Network Access Rule for Storage Accounts is Set to Deny</t>
+  </si>
+  <si>
+    <t>T1613</t>
+  </si>
+  <si>
+    <t>Ensure 'Trusted Microsoft Services' are Enabled for Storage Account Access</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Ensure Soft Delete is Enabled for Azure Storage</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Ensure Storage for Critical Data are Encrypted with Customer Managed Keys</t>
+  </si>
+  <si>
+    <t>T1530</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>Ensure Storage logging is Enabled for Blob Service for 'Read', 'Write', and 'Delete' requests</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>Ensure Storage Logging is Enabled for Table Service for 'Read', 'Write', and 'Delete' Requests</t>
+  </si>
+  <si>
+    <t>Ensure that 'Auditing' is set to 'On'</t>
+  </si>
+  <si>
+    <t>Ensure that 'Data encryption' is set to 'On' on a SQL Database</t>
+  </si>
+  <si>
+    <t>Ensure that 'Auditing' Retention is 'greater than 90 days'</t>
+  </si>
+  <si>
+    <t>Ensure that Advanced Threat Protection (ATP) on a SQL Server is Set to 'Enabled'</t>
+  </si>
+  <si>
+    <t>Ensure that Vulnerability Assessment (VA) is enabled on a SQL server by setting a Storage Account</t>
+  </si>
+  <si>
+    <t>T1190</t>
+  </si>
+  <si>
+    <t>Ensure that VA setting 'Periodic recurring scans' to 'on' for each SQL server</t>
+  </si>
+  <si>
+    <t>Ensure that VA setting 'Send scan reports to' is configured for a SQL server</t>
+  </si>
+  <si>
+    <t>4.2.5</t>
+  </si>
+  <si>
+    <t>Ensure that Vulnerability Assessment Setting 'Also send email notifications to admins and subscription owners' is Set for Each SQL Server</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Ensure 'Enforce SSL connection' is set to 'ENABLED' for PostgreSQL Database Server</t>
+  </si>
+  <si>
+    <t>4.3.2</t>
+  </si>
+  <si>
+    <t>Ensure Server Parameter 'log_checkpoints' is set to 'ON' for PostgreSQL Database Server</t>
+  </si>
+  <si>
+    <t>4.3.3</t>
+  </si>
+  <si>
+    <t>Ensure server parameter 'log_connections' is set to 'ON' for PostgreSQL Database Server</t>
+  </si>
+  <si>
+    <t>4.3.4</t>
+  </si>
+  <si>
+    <t>Ensure server parameter 'log_disconnections' is set to 'ON' for PostgreSQL Database Server</t>
+  </si>
+  <si>
+    <t>4.3.5</t>
+  </si>
+  <si>
+    <t>Ensure server parameter 'connection_throttling' is set to 'ON' for PostgreSQL Database Server</t>
+  </si>
+  <si>
+    <t>4.3.6</t>
+  </si>
+  <si>
+    <t>Ensure server parameter 'log_retention_days' is greater than 3 days for PostgreSQL Database Server</t>
+  </si>
+  <si>
+    <t>4.3.7</t>
+  </si>
+  <si>
+    <t>Ensure 'Allow access to Azure services' for PostgreSQL Database Server is disabled</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>Ensure 'Enforce SSL connection' is set to 'Enabled' for Standard MySQL Database Server</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Ensure that Azure Active Directory Admin is configured</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Ensure SQL server's TDE protector is encrypted with Customer-managed key</t>
+  </si>
+  <si>
+    <t>Ensure that a 'Diagnostics Setting' exists</t>
+  </si>
+  <si>
+    <t>Ensure Diagnostic Setting captures appropriate categories</t>
+  </si>
+  <si>
+    <t>Ensure the storage container storing the activity logs is not publicly accessible</t>
+  </si>
+  <si>
+    <t>Ensure the storage account containing the container with activity logs is encrypted with BYOK (Use Your Own Key)</t>
+  </si>
+  <si>
+    <t>Ensure that logging for Azure KeyVault is 'Enabled'</t>
+  </si>
+  <si>
+    <t>Ensure that Diagnostic Logs Are Enabled for All Services that Support it.</t>
+  </si>
+  <si>
+    <t>Ensure that RDP access is restricted from the internet</t>
+  </si>
+  <si>
+    <t>Ensure that SSH access is restricted from the internet</t>
+  </si>
+  <si>
+    <t>Ensure no SQL Databases allow ingress 0.0.0.0/0 (ANY IP)</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Ensure that UDP Services are restricted from the Internet</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Ensure Virtual Machines are utilizing Managed Disks</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Ensure that 'OS and Data' disks are encrypted with Customer Managed Key (CMK)</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Ensure that 'Unattached disks' are encrypted with CMK</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Ensure that Only Approved Extensions Are Installed</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Ensure that the latest OS Patches for all Virtual Machines are applied</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>Ensure that the endpoint protection for all Virtual Machines is installed</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>Ensure that VHD's are Encrypted</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Ensure that the Expiration Date is set for all Keys in RBAC Key Vaults</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Ensure that the Expiration Date is set for all Keys in Non-RBAC Key Vaults.</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>Ensure that the Expiration Date is set for all Secrets in RBAC Key Vaults</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Ensure that the Expiration Date is set for all Secrets in Non-RBAC Key Vaults</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>Ensure the key vault is recoverable</t>
+  </si>
+  <si>
+    <t>Ensure App Service Authentication is set up for apps in Azure App Service</t>
+  </si>
+  <si>
+    <t>Ensure Web App Redirects All HTTP traffic to HTTPS in Azure App Service</t>
+  </si>
+  <si>
+    <t>Ensure Web App is using the latest version of TLS encryption</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>Ensure the web app has 'Client Certificates (Incoming client certificates)' set to 'On'</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>Ensure That 'PHP version' is the Latest, If Used to Run the Web App</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>Ensure that 'Python version' is the Latest Stable Version, if Used to Run the Web App</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>Ensure that 'Java version' is the latest, if used to run the Web App</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>Ensure that 'HTTP Version' is the Latest, if Used to Run the Web App</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>Ensure FTP deployments are Disabled</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>Ensure Azure Keyvaults are Used to Store Secrets</t>
   </si>
 </sst>
 </file>
@@ -5695,10 +6100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C92A6CD-8B8E-4000-B369-F72F091CD094}">
-  <dimension ref="A1:F1045"/>
+  <dimension ref="A1:F1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="A749" sqref="A749:F1045"/>
+    <sheetView tabSelected="1" topLeftCell="A1042" workbookViewId="0">
+      <selection activeCell="D1046" sqref="D1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20638,10 +21043,10 @@
         <v>4</v>
       </c>
       <c r="D749" t="s">
+        <v>6</v>
+      </c>
+      <c r="E749" t="s">
         <v>1475</v>
-      </c>
-      <c r="E749" t="s">
-        <v>1476</v>
       </c>
       <c r="F749" t="s">
         <v>909</v>
@@ -20658,10 +21063,10 @@
         <v>20</v>
       </c>
       <c r="D750" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E750" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F750" t="s">
         <v>909</v>
@@ -20675,13 +21080,13 @@
         <v>1474</v>
       </c>
       <c r="C751" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D751" t="s">
+        <v>6</v>
+      </c>
+      <c r="E751" t="s">
         <v>1478</v>
-      </c>
-      <c r="D751" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E751" t="s">
-        <v>1479</v>
       </c>
       <c r="F751" t="s">
         <v>909</v>
@@ -20695,13 +21100,13 @@
         <v>1474</v>
       </c>
       <c r="C752" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D752" t="s">
+        <v>6</v>
+      </c>
+      <c r="E752" t="s">
         <v>1480</v>
-      </c>
-      <c r="D752" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E752" t="s">
-        <v>1481</v>
       </c>
       <c r="F752" t="s">
         <v>909</v>
@@ -20715,13 +21120,13 @@
         <v>1474</v>
       </c>
       <c r="C753" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D753" t="s">
+        <v>6</v>
+      </c>
+      <c r="E753" t="s">
         <v>1482</v>
-      </c>
-      <c r="D753" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E753" t="s">
-        <v>1483</v>
       </c>
       <c r="F753" t="s">
         <v>909</v>
@@ -20735,13 +21140,13 @@
         <v>1474</v>
       </c>
       <c r="C754" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D754" t="s">
+        <v>6</v>
+      </c>
+      <c r="E754" t="s">
         <v>1484</v>
-      </c>
-      <c r="D754" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E754" t="s">
-        <v>1485</v>
       </c>
       <c r="F754" t="s">
         <v>909</v>
@@ -20755,13 +21160,13 @@
         <v>1474</v>
       </c>
       <c r="C755" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D755" t="s">
+        <v>6</v>
+      </c>
+      <c r="E755" t="s">
         <v>1486</v>
-      </c>
-      <c r="D755" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E755" t="s">
-        <v>1487</v>
       </c>
       <c r="F755" t="s">
         <v>909</v>
@@ -20775,13 +21180,13 @@
         <v>1474</v>
       </c>
       <c r="C756" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D756" t="s">
+        <v>6</v>
+      </c>
+      <c r="E756" t="s">
         <v>1488</v>
-      </c>
-      <c r="D756" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E756" t="s">
-        <v>1489</v>
       </c>
       <c r="F756" t="s">
         <v>909</v>
@@ -20795,16 +21200,16 @@
         <v>1099</v>
       </c>
       <c r="C757" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D757" t="s">
+        <v>83</v>
+      </c>
+      <c r="E757" t="s">
         <v>1490</v>
       </c>
-      <c r="D757" t="s">
+      <c r="F757" t="s">
         <v>1491</v>
-      </c>
-      <c r="E757" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F757" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
@@ -20815,16 +21220,16 @@
         <v>1099</v>
       </c>
       <c r="C758" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D758" t="s">
+        <v>83</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F758" t="s">
         <v>1494</v>
-      </c>
-      <c r="D758" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E758" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F758" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
@@ -20835,16 +21240,16 @@
         <v>1099</v>
       </c>
       <c r="C759" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D759" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E759" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F759" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
@@ -20855,16 +21260,16 @@
         <v>1099</v>
       </c>
       <c r="C760" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D760" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E760" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F760" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
@@ -20875,16 +21280,16 @@
         <v>1099</v>
       </c>
       <c r="C761" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D761" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E761" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F761" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
@@ -20892,19 +21297,19 @@
         <v>1473</v>
       </c>
       <c r="B762" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D762" t="s">
+        <v>83</v>
+      </c>
+      <c r="E762" t="s">
         <v>1503</v>
       </c>
-      <c r="C762" t="s">
+      <c r="F762" t="s">
         <v>1504</v>
-      </c>
-      <c r="D762" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E762" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F762" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
@@ -20918,13 +21323,13 @@
         <v>28</v>
       </c>
       <c r="D763" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E763" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F763" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -20938,13 +21343,13 @@
         <v>30</v>
       </c>
       <c r="D764" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E764" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F764" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
@@ -20958,13 +21363,13 @@
         <v>108</v>
       </c>
       <c r="D765" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E765" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F765" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
@@ -20978,13 +21383,13 @@
         <v>110</v>
       </c>
       <c r="D766" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E766" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="F766" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
@@ -20998,13 +21403,13 @@
         <v>121</v>
       </c>
       <c r="D767" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E767" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F767" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
@@ -21018,13 +21423,13 @@
         <v>123</v>
       </c>
       <c r="D768" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E768" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F768" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
@@ -21035,16 +21440,16 @@
         <v>125</v>
       </c>
       <c r="C769" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D769" t="s">
+        <v>6</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F769" t="s">
         <v>1517</v>
-      </c>
-      <c r="D769" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E769" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F769" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
@@ -21055,16 +21460,16 @@
         <v>125</v>
       </c>
       <c r="C770" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D770" t="s">
+        <v>6</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F770" t="s">
         <v>1520</v>
-      </c>
-      <c r="D770" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E770" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F770" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
@@ -21075,16 +21480,16 @@
         <v>125</v>
       </c>
       <c r="C771" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D771" t="s">
+        <v>6</v>
+      </c>
+      <c r="E771" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F771" t="s">
         <v>1523</v>
-      </c>
-      <c r="D771" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E771" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F771" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
@@ -21095,16 +21500,16 @@
         <v>125</v>
       </c>
       <c r="C772" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D772" t="s">
+        <v>6</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F772" t="s">
         <v>1526</v>
-      </c>
-      <c r="D772" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E772" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F772" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
@@ -21115,16 +21520,16 @@
         <v>125</v>
       </c>
       <c r="C773" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D773" t="s">
+        <v>6</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F773" t="s">
         <v>1529</v>
-      </c>
-      <c r="D773" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E773" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F773" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
@@ -21135,16 +21540,16 @@
         <v>125</v>
       </c>
       <c r="C774" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D774" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E774" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="F774" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -21155,16 +21560,16 @@
         <v>125</v>
       </c>
       <c r="C775" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D775" t="s">
+        <v>6</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F775" t="s">
         <v>1534</v>
-      </c>
-      <c r="D775" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E775" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F775" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
@@ -21175,16 +21580,16 @@
         <v>125</v>
       </c>
       <c r="C776" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D776" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E776" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F776" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
@@ -21195,16 +21600,16 @@
         <v>125</v>
       </c>
       <c r="C777" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D777" t="s">
+        <v>83</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F777" t="s">
         <v>1539</v>
-      </c>
-      <c r="D777" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E777" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F777" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
@@ -21215,16 +21620,16 @@
         <v>125</v>
       </c>
       <c r="C778" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D778" t="s">
+        <v>83</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F778" t="s">
         <v>1542</v>
-      </c>
-      <c r="D778" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E778" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F778" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
@@ -21235,16 +21640,16 @@
         <v>125</v>
       </c>
       <c r="C779" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D779" t="s">
+        <v>6</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F779" t="s">
         <v>1545</v>
-      </c>
-      <c r="D779" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E779" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F779" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
@@ -21255,13 +21660,13 @@
         <v>125</v>
       </c>
       <c r="C780" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D780" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E780" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F780" t="s">
         <v>909</v>
@@ -21275,16 +21680,16 @@
         <v>126</v>
       </c>
       <c r="C781" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D781" t="s">
+        <v>83</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F781" t="s">
         <v>1550</v>
-      </c>
-      <c r="D781" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E781" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F781" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
@@ -21298,13 +21703,13 @@
         <v>127</v>
       </c>
       <c r="D782" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E782" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F782" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
@@ -21315,16 +21720,16 @@
         <v>1130</v>
       </c>
       <c r="C783" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D783" t="s">
+        <v>6</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F783" t="s">
         <v>1554</v>
-      </c>
-      <c r="D783" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E783" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F783" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
@@ -21335,16 +21740,16 @@
         <v>1130</v>
       </c>
       <c r="C784" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D784" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E784" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="F784" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
@@ -21352,16 +21757,16 @@
         <v>1473</v>
       </c>
       <c r="B785" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D785" t="s">
+        <v>6</v>
+      </c>
+      <c r="E785" t="s">
         <v>1559</v>
-      </c>
-      <c r="C785" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D785" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E785" t="s">
-        <v>1561</v>
       </c>
       <c r="F785" t="s">
         <v>928</v>
@@ -21372,16 +21777,16 @@
         <v>1473</v>
       </c>
       <c r="B786" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C786" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D786" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E786" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="F786" t="s">
         <v>928</v>
@@ -21392,16 +21797,16 @@
         <v>1473</v>
       </c>
       <c r="B787" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D787" t="s">
+        <v>83</v>
+      </c>
+      <c r="E787" t="s">
         <v>1564</v>
-      </c>
-      <c r="C787" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D787" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E787" t="s">
-        <v>1566</v>
       </c>
       <c r="F787" t="s">
         <v>949</v>
@@ -21412,16 +21817,16 @@
         <v>1473</v>
       </c>
       <c r="B788" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C788" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D788" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E788" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="F788" t="s">
         <v>949</v>
@@ -21432,16 +21837,16 @@
         <v>1473</v>
       </c>
       <c r="B789" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C789" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D789" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E789" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="F789" t="s">
         <v>949</v>
@@ -21452,19 +21857,19 @@
         <v>1473</v>
       </c>
       <c r="B790" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D790" t="s">
+        <v>83</v>
+      </c>
+      <c r="E790" t="s">
         <v>1571</v>
       </c>
-      <c r="C790" t="s">
+      <c r="F790" t="s">
         <v>1572</v>
-      </c>
-      <c r="D790" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E790" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F790" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
@@ -21472,16 +21877,16 @@
         <v>1473</v>
       </c>
       <c r="B791" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D791" t="s">
+        <v>83</v>
+      </c>
+      <c r="E791" t="s">
         <v>1575</v>
-      </c>
-      <c r="C791" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D791" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E791" t="s">
-        <v>1577</v>
       </c>
       <c r="F791" t="s">
         <v>949</v>
@@ -21492,16 +21897,16 @@
         <v>1473</v>
       </c>
       <c r="B792" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C792" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D792" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E792" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="F792" t="s">
         <v>949</v>
@@ -21512,19 +21917,19 @@
         <v>1473</v>
       </c>
       <c r="B793" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C793" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D793" t="s">
+        <v>6</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F793" t="s">
         <v>1580</v>
-      </c>
-      <c r="D793" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E793" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F793" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
@@ -21532,16 +21937,16 @@
         <v>1473</v>
       </c>
       <c r="B794" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C794" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D794" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E794" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="F794" t="s">
         <v>949</v>
@@ -21552,19 +21957,19 @@
         <v>1473</v>
       </c>
       <c r="B795" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C795" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D795" t="s">
+        <v>6</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F795" t="s">
         <v>1585</v>
-      </c>
-      <c r="D795" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E795" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F795" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
@@ -21572,19 +21977,19 @@
         <v>1473</v>
       </c>
       <c r="B796" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D796" t="s">
+        <v>83</v>
+      </c>
+      <c r="E796" t="s">
         <v>1588</v>
       </c>
-      <c r="C796" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D796" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E796" t="s">
-        <v>1590</v>
-      </c>
       <c r="F796" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
@@ -21592,16 +21997,16 @@
         <v>1473</v>
       </c>
       <c r="B797" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D797" t="s">
+        <v>6</v>
+      </c>
+      <c r="E797" t="s">
         <v>1591</v>
-      </c>
-      <c r="C797" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D797" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E797" t="s">
-        <v>1593</v>
       </c>
       <c r="F797" t="s">
         <v>925</v>
@@ -21612,19 +22017,19 @@
         <v>1473</v>
       </c>
       <c r="B798" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D798" t="s">
+        <v>83</v>
+      </c>
+      <c r="E798" t="s">
         <v>1594</v>
       </c>
-      <c r="C798" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D798" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E798" t="s">
-        <v>1596</v>
-      </c>
       <c r="F798" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
@@ -21632,19 +22037,19 @@
         <v>1473</v>
       </c>
       <c r="B799" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C799" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D799" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E799" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="F799" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
@@ -21652,19 +22057,19 @@
         <v>1473</v>
       </c>
       <c r="B800" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C800" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D800" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E800" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F800" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
@@ -21672,19 +22077,19 @@
         <v>1473</v>
       </c>
       <c r="B801" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D801" t="s">
+        <v>6</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F801" t="s">
         <v>1601</v>
-      </c>
-      <c r="C801" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D801" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E801" t="s">
-        <v>1602</v>
-      </c>
-      <c r="F801" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
@@ -21692,19 +22097,19 @@
         <v>1473</v>
       </c>
       <c r="B802" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D802" t="s">
+        <v>6</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F802" t="s">
         <v>1601</v>
-      </c>
-      <c r="C802" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D802" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E802" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F802" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
@@ -21712,19 +22117,19 @@
         <v>1473</v>
       </c>
       <c r="B803" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D803" t="s">
+        <v>6</v>
+      </c>
+      <c r="E803" t="s">
         <v>1606</v>
       </c>
-      <c r="C803" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D803" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E803" t="s">
-        <v>1608</v>
-      </c>
       <c r="F803" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
@@ -21732,19 +22137,19 @@
         <v>1473</v>
       </c>
       <c r="B804" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C804" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D804" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E804" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F804" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
@@ -21752,16 +22157,16 @@
         <v>1473</v>
       </c>
       <c r="B805" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C805" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D805" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E805" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F805" t="s">
         <v>1049</v>
@@ -21772,19 +22177,19 @@
         <v>1473</v>
       </c>
       <c r="B806" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C806" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D806" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E806" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="F806" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
@@ -21792,19 +22197,19 @@
         <v>1473</v>
       </c>
       <c r="B807" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C807" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D807" t="s">
+        <v>6</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F807" t="s">
         <v>1615</v>
-      </c>
-      <c r="D807" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E807" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F807" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
@@ -21812,19 +22217,19 @@
         <v>1473</v>
       </c>
       <c r="B808" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D808" t="s">
+        <v>6</v>
+      </c>
+      <c r="E808" t="s">
         <v>1618</v>
       </c>
-      <c r="C808" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D808" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E808" t="s">
-        <v>1620</v>
-      </c>
       <c r="F808" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
@@ -21832,19 +22237,19 @@
         <v>1473</v>
       </c>
       <c r="B809" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C809" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D809" t="s">
+        <v>6</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F809" t="s">
         <v>1621</v>
-      </c>
-      <c r="D809" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E809" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F809" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
@@ -21852,19 +22257,19 @@
         <v>1473</v>
       </c>
       <c r="B810" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D810" t="s">
+        <v>6</v>
+      </c>
+      <c r="E810" t="s">
         <v>1624</v>
       </c>
-      <c r="C810" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D810" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E810" t="s">
-        <v>1626</v>
-      </c>
       <c r="F810" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
@@ -21872,16 +22277,16 @@
         <v>1473</v>
       </c>
       <c r="B811" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C811" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D811" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E811" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="F811" t="s">
         <v>882</v>
@@ -21892,19 +22297,19 @@
         <v>1473</v>
       </c>
       <c r="B812" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C812" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D812" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E812" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F812" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
@@ -21912,19 +22317,19 @@
         <v>1473</v>
       </c>
       <c r="B813" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D813" t="s">
+        <v>6</v>
+      </c>
+      <c r="E813" t="s">
         <v>1631</v>
       </c>
-      <c r="C813" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D813" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E813" t="s">
-        <v>1633</v>
-      </c>
       <c r="F813" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
@@ -21932,19 +22337,19 @@
         <v>1473</v>
       </c>
       <c r="B814" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D814" t="s">
+        <v>6</v>
+      </c>
+      <c r="E814" t="s">
         <v>1634</v>
       </c>
-      <c r="C814" t="s">
+      <c r="F814" t="s">
         <v>1635</v>
-      </c>
-      <c r="D814" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E814" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F814" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
@@ -21952,19 +22357,19 @@
         <v>1473</v>
       </c>
       <c r="B815" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C815" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D815" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E815" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="F815" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
@@ -21972,19 +22377,19 @@
         <v>1473</v>
       </c>
       <c r="B816" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D816" t="s">
+        <v>83</v>
+      </c>
+      <c r="E816" t="s">
         <v>1640</v>
       </c>
-      <c r="C816" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D816" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E816" t="s">
-        <v>1642</v>
-      </c>
       <c r="F816" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
@@ -21992,19 +22397,19 @@
         <v>1473</v>
       </c>
       <c r="B817" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D817" t="s">
+        <v>6</v>
+      </c>
+      <c r="E817" t="s">
         <v>1643</v>
       </c>
-      <c r="C817" t="s">
+      <c r="F817" t="s">
         <v>1644</v>
-      </c>
-      <c r="D817" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E817" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F817" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
@@ -22012,16 +22417,16 @@
         <v>1473</v>
       </c>
       <c r="B818" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D818" t="s">
+        <v>6</v>
+      </c>
+      <c r="E818" t="s">
         <v>1647</v>
-      </c>
-      <c r="C818" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D818" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E818" t="s">
-        <v>1649</v>
       </c>
       <c r="F818" t="s">
         <v>928</v>
@@ -22032,19 +22437,19 @@
         <v>1473</v>
       </c>
       <c r="B819" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D819" t="s">
+        <v>6</v>
+      </c>
+      <c r="E819" t="s">
         <v>1650</v>
       </c>
-      <c r="C819" t="s">
+      <c r="F819" t="s">
         <v>1651</v>
-      </c>
-      <c r="D819" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E819" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F819" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
@@ -22052,19 +22457,19 @@
         <v>1473</v>
       </c>
       <c r="B820" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C820" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D820" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E820" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F820" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
@@ -22072,19 +22477,19 @@
         <v>1473</v>
       </c>
       <c r="B821" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C821" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D821" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E821" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F821" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
@@ -22092,19 +22497,19 @@
         <v>1473</v>
       </c>
       <c r="B822" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C822" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D822" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E822" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F822" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
@@ -22112,19 +22517,19 @@
         <v>1473</v>
       </c>
       <c r="B823" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C823" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D823" t="s">
+        <v>6</v>
+      </c>
+      <c r="E823" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F823" t="s">
         <v>1660</v>
-      </c>
-      <c r="D823" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E823" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F823" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
@@ -22132,19 +22537,19 @@
         <v>1473</v>
       </c>
       <c r="B824" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C824" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D824" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E824" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="F824" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
@@ -22152,19 +22557,19 @@
         <v>1473</v>
       </c>
       <c r="B825" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C825" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D825" t="s">
+        <v>83</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F825" t="s">
         <v>1665</v>
-      </c>
-      <c r="D825" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E825" t="s">
-        <v>1666</v>
-      </c>
-      <c r="F825" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
@@ -22172,19 +22577,19 @@
         <v>1473</v>
       </c>
       <c r="B826" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D826" t="s">
+        <v>83</v>
+      </c>
+      <c r="E826" t="s">
         <v>1668</v>
       </c>
-      <c r="C826" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D826" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E826" t="s">
-        <v>1670</v>
-      </c>
       <c r="F826" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
@@ -22192,16 +22597,16 @@
         <v>1473</v>
       </c>
       <c r="B827" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C827" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D827" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E827" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F827" t="s">
         <v>909</v>
@@ -22212,16 +22617,16 @@
         <v>1473</v>
       </c>
       <c r="B828" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C828" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D828" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E828" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F828" t="s">
         <v>876</v>
@@ -22238,13 +22643,13 @@
         <v>1310</v>
       </c>
       <c r="D829" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E829" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F829" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -22258,13 +22663,13 @@
         <v>1312</v>
       </c>
       <c r="D830" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E830" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F830" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
@@ -22278,13 +22683,13 @@
         <v>1314</v>
       </c>
       <c r="D831" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E831" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="F831" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
@@ -22298,13 +22703,13 @@
         <v>1316</v>
       </c>
       <c r="D832" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E832" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="F832" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
@@ -22318,13 +22723,13 @@
         <v>1318</v>
       </c>
       <c r="D833" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E833" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F833" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
@@ -22338,13 +22743,13 @@
         <v>1320</v>
       </c>
       <c r="D834" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E834" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="F834" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
@@ -22358,13 +22763,13 @@
         <v>1322</v>
       </c>
       <c r="D835" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E835" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F835" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
@@ -22378,13 +22783,13 @@
         <v>1328</v>
       </c>
       <c r="D836" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E836" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F836" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
@@ -22398,13 +22803,13 @@
         <v>1330</v>
       </c>
       <c r="D837" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E837" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F837" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
@@ -22418,13 +22823,13 @@
         <v>1332</v>
       </c>
       <c r="D838" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E838" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F838" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
@@ -22435,16 +22840,16 @@
         <v>239</v>
       </c>
       <c r="C839" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D839" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E839" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F839" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
@@ -22455,16 +22860,16 @@
         <v>239</v>
       </c>
       <c r="C840" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D840" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E840" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F840" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -22475,16 +22880,16 @@
         <v>239</v>
       </c>
       <c r="C841" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D841" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E841" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F841" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
@@ -22495,16 +22900,16 @@
         <v>239</v>
       </c>
       <c r="C842" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D842" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E842" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F842" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
@@ -22515,16 +22920,16 @@
         <v>239</v>
       </c>
       <c r="C843" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D843" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E843" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F843" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
@@ -22538,10 +22943,10 @@
         <v>1334</v>
       </c>
       <c r="D844" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E844" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="F844" t="s">
         <v>949</v>
@@ -22558,10 +22963,10 @@
         <v>1336</v>
       </c>
       <c r="D845" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E845" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="F845" t="s">
         <v>949</v>
@@ -22578,13 +22983,13 @@
         <v>243</v>
       </c>
       <c r="D846" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E846" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F846" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
@@ -22598,13 +23003,13 @@
         <v>245</v>
       </c>
       <c r="D847" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E847" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F847" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
@@ -22618,13 +23023,13 @@
         <v>247</v>
       </c>
       <c r="D848" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E848" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F848" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
@@ -22638,13 +23043,13 @@
         <v>249</v>
       </c>
       <c r="D849" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E849" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F849" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
@@ -22658,10 +23063,10 @@
         <v>251</v>
       </c>
       <c r="D850" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E850" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F850" t="s">
         <v>1049</v>
@@ -22678,13 +23083,13 @@
         <v>253</v>
       </c>
       <c r="D851" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E851" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F851" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
@@ -22698,10 +23103,10 @@
         <v>255</v>
       </c>
       <c r="D852" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E852" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F852" t="s">
         <v>882</v>
@@ -22712,19 +23117,19 @@
         <v>1473</v>
       </c>
       <c r="B853" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C853" t="s">
         <v>1408</v>
       </c>
       <c r="D853" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E853" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F853" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
@@ -22732,19 +23137,19 @@
         <v>1473</v>
       </c>
       <c r="B854" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C854" t="s">
         <v>1436</v>
       </c>
       <c r="D854" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E854" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F854" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
@@ -22752,19 +23157,19 @@
         <v>1473</v>
       </c>
       <c r="B855" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D855" t="s">
+        <v>6</v>
+      </c>
+      <c r="E855" t="s">
         <v>1711</v>
       </c>
-      <c r="C855" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D855" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E855" t="s">
-        <v>1713</v>
-      </c>
       <c r="F855" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.25">
@@ -22772,19 +23177,19 @@
         <v>1473</v>
       </c>
       <c r="B856" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C856" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D856" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E856" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F856" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
@@ -22792,19 +23197,19 @@
         <v>1473</v>
       </c>
       <c r="B857" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C857" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D857" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E857" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F857" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
@@ -22812,19 +23217,19 @@
         <v>1473</v>
       </c>
       <c r="B858" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C858" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D858" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E858" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F858" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
@@ -22832,19 +23237,19 @@
         <v>1473</v>
       </c>
       <c r="B859" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C859" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D859" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E859" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F859" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
@@ -22852,19 +23257,19 @@
         <v>1473</v>
       </c>
       <c r="B860" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C860" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D860" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E860" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="F860" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
@@ -22872,19 +23277,19 @@
         <v>1473</v>
       </c>
       <c r="B861" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C861" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D861" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E861" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F861" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
@@ -22892,19 +23297,19 @@
         <v>1473</v>
       </c>
       <c r="B862" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C862" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D862" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E862" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F862" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -22912,19 +23317,19 @@
         <v>1473</v>
       </c>
       <c r="B863" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C863" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D863" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E863" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="F863" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
@@ -22932,19 +23337,19 @@
         <v>1473</v>
       </c>
       <c r="B864" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C864" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D864" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E864" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F864" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
@@ -22952,19 +23357,19 @@
         <v>1473</v>
       </c>
       <c r="B865" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C865" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D865" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E865" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F865" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.25">
@@ -22972,19 +23377,19 @@
         <v>1473</v>
       </c>
       <c r="B866" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D866" t="s">
+        <v>6</v>
+      </c>
+      <c r="E866" t="s">
         <v>1734</v>
       </c>
-      <c r="C866" t="s">
+      <c r="F866" t="s">
         <v>1735</v>
-      </c>
-      <c r="D866" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E866" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F866" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
@@ -22998,10 +23403,10 @@
         <v>4</v>
       </c>
       <c r="D867" t="s">
+        <v>6</v>
+      </c>
+      <c r="E867" t="s">
         <v>1475</v>
-      </c>
-      <c r="E867" t="s">
-        <v>1476</v>
       </c>
       <c r="F867" t="s">
         <v>923</v>
@@ -23018,10 +23423,10 @@
         <v>20</v>
       </c>
       <c r="D868" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E868" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F868" t="s">
         <v>923</v>
@@ -23035,13 +23440,13 @@
         <v>1474</v>
       </c>
       <c r="C869" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D869" t="s">
+        <v>6</v>
+      </c>
+      <c r="E869" t="s">
         <v>1478</v>
-      </c>
-      <c r="D869" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E869" t="s">
-        <v>1479</v>
       </c>
       <c r="F869" t="s">
         <v>923</v>
@@ -23055,13 +23460,13 @@
         <v>1474</v>
       </c>
       <c r="C870" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D870" t="s">
+        <v>6</v>
+      </c>
+      <c r="E870" t="s">
         <v>1480</v>
-      </c>
-      <c r="D870" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E870" t="s">
-        <v>1481</v>
       </c>
       <c r="F870" t="s">
         <v>923</v>
@@ -23075,13 +23480,13 @@
         <v>1474</v>
       </c>
       <c r="C871" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D871" t="s">
+        <v>6</v>
+      </c>
+      <c r="E871" t="s">
         <v>1482</v>
-      </c>
-      <c r="D871" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E871" t="s">
-        <v>1483</v>
       </c>
       <c r="F871" t="s">
         <v>923</v>
@@ -23095,13 +23500,13 @@
         <v>1474</v>
       </c>
       <c r="C872" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D872" t="s">
+        <v>6</v>
+      </c>
+      <c r="E872" t="s">
         <v>1484</v>
-      </c>
-      <c r="D872" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E872" t="s">
-        <v>1485</v>
       </c>
       <c r="F872" t="s">
         <v>923</v>
@@ -23115,13 +23520,13 @@
         <v>1474</v>
       </c>
       <c r="C873" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D873" t="s">
+        <v>6</v>
+      </c>
+      <c r="E873" t="s">
         <v>1486</v>
-      </c>
-      <c r="D873" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E873" t="s">
-        <v>1487</v>
       </c>
       <c r="F873" t="s">
         <v>923</v>
@@ -23135,13 +23540,13 @@
         <v>1474</v>
       </c>
       <c r="C874" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D874" t="s">
+        <v>6</v>
+      </c>
+      <c r="E874" t="s">
         <v>1488</v>
-      </c>
-      <c r="D874" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E874" t="s">
-        <v>1489</v>
       </c>
       <c r="F874" t="s">
         <v>923</v>
@@ -23155,16 +23560,16 @@
         <v>1099</v>
       </c>
       <c r="C875" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="D875" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E875" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F875" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
@@ -23175,16 +23580,16 @@
         <v>1099</v>
       </c>
       <c r="C876" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D876" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E876" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F876" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
@@ -23195,16 +23600,16 @@
         <v>1099</v>
       </c>
       <c r="C877" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D877" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E877" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F877" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
@@ -23215,16 +23620,16 @@
         <v>1099</v>
       </c>
       <c r="C878" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D878" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E878" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F878" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
@@ -23238,13 +23643,13 @@
         <v>108</v>
       </c>
       <c r="D879" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E879" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F879" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
@@ -23258,13 +23663,13 @@
         <v>121</v>
       </c>
       <c r="D880" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E880" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F880" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
@@ -23278,13 +23683,13 @@
         <v>123</v>
       </c>
       <c r="D881" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E881" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F881" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
@@ -23295,16 +23700,16 @@
         <v>125</v>
       </c>
       <c r="C882" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D882" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E882" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="F882" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
@@ -23315,13 +23720,13 @@
         <v>125</v>
       </c>
       <c r="C883" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D883" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E883" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="F883" t="s">
         <v>901</v>
@@ -23335,16 +23740,16 @@
         <v>125</v>
       </c>
       <c r="C884" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D884" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E884" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="F884" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
@@ -23355,16 +23760,16 @@
         <v>125</v>
       </c>
       <c r="C885" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D885" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E885" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F885" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
@@ -23375,16 +23780,16 @@
         <v>125</v>
       </c>
       <c r="C886" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D886" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E886" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="F886" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
@@ -23395,13 +23800,13 @@
         <v>125</v>
       </c>
       <c r="C887" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D887" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E887" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F887" t="s">
         <v>923</v>
@@ -23412,16 +23817,16 @@
         <v>1473</v>
       </c>
       <c r="B888" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D888" t="s">
+        <v>6</v>
+      </c>
+      <c r="E888" t="s">
         <v>1559</v>
-      </c>
-      <c r="C888" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D888" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E888" t="s">
-        <v>1561</v>
       </c>
       <c r="F888" t="s">
         <v>903</v>
@@ -23432,16 +23837,16 @@
         <v>1473</v>
       </c>
       <c r="B889" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C889" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D889" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E889" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="F889" t="s">
         <v>903</v>
@@ -23452,19 +23857,19 @@
         <v>1473</v>
       </c>
       <c r="B890" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D890" t="s">
+        <v>83</v>
+      </c>
+      <c r="E890" t="s">
         <v>1571</v>
       </c>
-      <c r="C890" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D890" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E890" t="s">
-        <v>1573</v>
-      </c>
       <c r="F890" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
@@ -23472,19 +23877,19 @@
         <v>1473</v>
       </c>
       <c r="B891" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C891" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D891" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E891" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="F891" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
@@ -23492,19 +23897,19 @@
         <v>1473</v>
       </c>
       <c r="B892" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D892" t="s">
+        <v>83</v>
+      </c>
+      <c r="E892" t="s">
         <v>1588</v>
       </c>
-      <c r="C892" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D892" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E892" t="s">
-        <v>1590</v>
-      </c>
       <c r="F892" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
@@ -23512,19 +23917,19 @@
         <v>1473</v>
       </c>
       <c r="B893" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D893" t="s">
+        <v>83</v>
+      </c>
+      <c r="E893" t="s">
         <v>1594</v>
       </c>
-      <c r="C893" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D893" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E893" t="s">
-        <v>1596</v>
-      </c>
       <c r="F893" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
@@ -23532,19 +23937,19 @@
         <v>1473</v>
       </c>
       <c r="B894" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C894" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D894" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E894" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="F894" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
@@ -23552,19 +23957,19 @@
         <v>1473</v>
       </c>
       <c r="B895" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C895" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D895" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E895" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F895" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
@@ -23572,19 +23977,19 @@
         <v>1473</v>
       </c>
       <c r="B896" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D896" t="s">
+        <v>6</v>
+      </c>
+      <c r="E896" t="s">
         <v>1606</v>
       </c>
-      <c r="C896" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D896" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E896" t="s">
-        <v>1608</v>
-      </c>
       <c r="F896" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
@@ -23592,19 +23997,19 @@
         <v>1473</v>
       </c>
       <c r="B897" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C897" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D897" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E897" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F897" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
@@ -23612,19 +24017,19 @@
         <v>1473</v>
       </c>
       <c r="B898" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C898" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D898" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E898" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F898" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
@@ -23632,19 +24037,19 @@
         <v>1473</v>
       </c>
       <c r="B899" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C899" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D899" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E899" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="F899" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
@@ -23652,19 +24057,19 @@
         <v>1473</v>
       </c>
       <c r="B900" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C900" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D900" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E900" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="F900" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.25">
@@ -23672,19 +24077,19 @@
         <v>1473</v>
       </c>
       <c r="B901" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D901" t="s">
+        <v>6</v>
+      </c>
+      <c r="E901" t="s">
         <v>1624</v>
       </c>
-      <c r="C901" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D901" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E901" t="s">
-        <v>1626</v>
-      </c>
       <c r="F901" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
@@ -23692,19 +24097,19 @@
         <v>1473</v>
       </c>
       <c r="B902" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C902" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D902" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E902" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F902" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
@@ -23712,19 +24117,19 @@
         <v>1473</v>
       </c>
       <c r="B903" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D903" t="s">
+        <v>6</v>
+      </c>
+      <c r="E903" t="s">
         <v>1631</v>
       </c>
-      <c r="C903" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D903" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E903" t="s">
-        <v>1633</v>
-      </c>
       <c r="F903" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
@@ -23732,19 +24137,19 @@
         <v>1473</v>
       </c>
       <c r="B904" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D904" t="s">
+        <v>6</v>
+      </c>
+      <c r="E904" t="s">
         <v>1634</v>
       </c>
-      <c r="C904" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D904" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E904" t="s">
-        <v>1636</v>
-      </c>
       <c r="F904" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
@@ -23752,19 +24157,19 @@
         <v>1473</v>
       </c>
       <c r="B905" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C905" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D905" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E905" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="F905" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
@@ -23772,19 +24177,19 @@
         <v>1473</v>
       </c>
       <c r="B906" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D906" t="s">
+        <v>83</v>
+      </c>
+      <c r="E906" t="s">
         <v>1640</v>
       </c>
-      <c r="C906" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D906" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E906" t="s">
-        <v>1642</v>
-      </c>
       <c r="F906" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -23792,19 +24197,19 @@
         <v>1473</v>
       </c>
       <c r="B907" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D907" t="s">
+        <v>6</v>
+      </c>
+      <c r="E907" t="s">
         <v>1643</v>
       </c>
-      <c r="C907" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D907" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E907" t="s">
-        <v>1645</v>
-      </c>
       <c r="F907" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
@@ -23812,16 +24217,16 @@
         <v>1473</v>
       </c>
       <c r="B908" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D908" t="s">
+        <v>6</v>
+      </c>
+      <c r="E908" t="s">
         <v>1647</v>
-      </c>
-      <c r="C908" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D908" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E908" t="s">
-        <v>1649</v>
       </c>
       <c r="F908" t="s">
         <v>903</v>
@@ -23832,19 +24237,19 @@
         <v>1473</v>
       </c>
       <c r="B909" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C909" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D909" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E909" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="F909" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
@@ -23852,19 +24257,19 @@
         <v>1473</v>
       </c>
       <c r="B910" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D910" t="s">
+        <v>83</v>
+      </c>
+      <c r="E910" t="s">
         <v>1668</v>
       </c>
-      <c r="C910" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D910" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E910" t="s">
-        <v>1670</v>
-      </c>
       <c r="F910" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
@@ -23872,16 +24277,16 @@
         <v>1473</v>
       </c>
       <c r="B911" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C911" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D911" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E911" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F911" t="s">
         <v>876</v>
@@ -23892,16 +24297,16 @@
         <v>1473</v>
       </c>
       <c r="B912" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C912" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D912" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E912" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F912" t="s">
         <v>919</v>
@@ -23918,13 +24323,13 @@
         <v>1328</v>
       </c>
       <c r="D913" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E913" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F913" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
@@ -23938,13 +24343,13 @@
         <v>1330</v>
       </c>
       <c r="D914" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E914" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F914" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.25">
@@ -23958,13 +24363,13 @@
         <v>1332</v>
       </c>
       <c r="D915" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E915" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F915" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.25">
@@ -23975,16 +24380,16 @@
         <v>239</v>
       </c>
       <c r="C916" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D916" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E916" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F916" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
@@ -23995,16 +24400,16 @@
         <v>239</v>
       </c>
       <c r="C917" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D917" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E917" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F917" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -24015,16 +24420,16 @@
         <v>239</v>
       </c>
       <c r="C918" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D918" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E918" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F918" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
@@ -24035,16 +24440,16 @@
         <v>239</v>
       </c>
       <c r="C919" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D919" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E919" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F919" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
@@ -24055,16 +24460,16 @@
         <v>239</v>
       </c>
       <c r="C920" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D920" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E920" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F920" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.25">
@@ -24078,13 +24483,13 @@
         <v>247</v>
       </c>
       <c r="D921" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E921" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F921" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.25">
@@ -24098,13 +24503,13 @@
         <v>249</v>
       </c>
       <c r="D922" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E922" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F922" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.25">
@@ -24118,13 +24523,13 @@
         <v>251</v>
       </c>
       <c r="D923" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E923" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F923" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.25">
@@ -24132,19 +24537,19 @@
         <v>1473</v>
       </c>
       <c r="B924" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C924" t="s">
         <v>1408</v>
       </c>
       <c r="D924" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E924" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F924" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
@@ -24152,19 +24557,19 @@
         <v>1473</v>
       </c>
       <c r="B925" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C925" t="s">
         <v>1436</v>
       </c>
       <c r="D925" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E925" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F925" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
@@ -24172,19 +24577,19 @@
         <v>1473</v>
       </c>
       <c r="B926" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D926" t="s">
+        <v>6</v>
+      </c>
+      <c r="E926" t="s">
         <v>1711</v>
       </c>
-      <c r="C926" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D926" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E926" t="s">
-        <v>1713</v>
-      </c>
       <c r="F926" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
@@ -24192,19 +24597,19 @@
         <v>1473</v>
       </c>
       <c r="B927" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C927" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D927" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E927" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F927" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.25">
@@ -24212,19 +24617,19 @@
         <v>1473</v>
       </c>
       <c r="B928" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C928" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D928" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E928" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F928" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.25">
@@ -24232,19 +24637,19 @@
         <v>1473</v>
       </c>
       <c r="B929" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C929" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D929" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E929" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F929" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
@@ -24252,19 +24657,19 @@
         <v>1473</v>
       </c>
       <c r="B930" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C930" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D930" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E930" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F930" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
@@ -24272,19 +24677,19 @@
         <v>1473</v>
       </c>
       <c r="B931" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C931" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D931" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E931" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="F931" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.25">
@@ -24292,19 +24697,19 @@
         <v>1473</v>
       </c>
       <c r="B932" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C932" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D932" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E932" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F932" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.25">
@@ -24312,19 +24717,19 @@
         <v>1473</v>
       </c>
       <c r="B933" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C933" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D933" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E933" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F933" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.25">
@@ -24332,19 +24737,19 @@
         <v>1473</v>
       </c>
       <c r="B934" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C934" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D934" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E934" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="F934" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
@@ -24352,19 +24757,19 @@
         <v>1473</v>
       </c>
       <c r="B935" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C935" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D935" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E935" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F935" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.25">
@@ -24372,19 +24777,19 @@
         <v>1473</v>
       </c>
       <c r="B936" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C936" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D936" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E936" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F936" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.25">
@@ -24398,10 +24803,10 @@
         <v>4</v>
       </c>
       <c r="D937" t="s">
+        <v>6</v>
+      </c>
+      <c r="E937" t="s">
         <v>1475</v>
-      </c>
-      <c r="E937" t="s">
-        <v>1476</v>
       </c>
       <c r="F937" t="s">
         <v>942</v>
@@ -24418,10 +24823,10 @@
         <v>20</v>
       </c>
       <c r="D938" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E938" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F938" t="s">
         <v>942</v>
@@ -24435,13 +24840,13 @@
         <v>1474</v>
       </c>
       <c r="C939" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D939" t="s">
+        <v>6</v>
+      </c>
+      <c r="E939" t="s">
         <v>1478</v>
-      </c>
-      <c r="D939" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E939" t="s">
-        <v>1479</v>
       </c>
       <c r="F939" t="s">
         <v>942</v>
@@ -24455,13 +24860,13 @@
         <v>1474</v>
       </c>
       <c r="C940" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D940" t="s">
+        <v>6</v>
+      </c>
+      <c r="E940" t="s">
         <v>1480</v>
-      </c>
-      <c r="D940" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E940" t="s">
-        <v>1481</v>
       </c>
       <c r="F940" t="s">
         <v>942</v>
@@ -24475,13 +24880,13 @@
         <v>1474</v>
       </c>
       <c r="C941" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D941" t="s">
+        <v>6</v>
+      </c>
+      <c r="E941" t="s">
         <v>1482</v>
-      </c>
-      <c r="D941" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E941" t="s">
-        <v>1483</v>
       </c>
       <c r="F941" t="s">
         <v>942</v>
@@ -24495,13 +24900,13 @@
         <v>1474</v>
       </c>
       <c r="C942" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D942" t="s">
+        <v>6</v>
+      </c>
+      <c r="E942" t="s">
         <v>1484</v>
-      </c>
-      <c r="D942" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E942" t="s">
-        <v>1485</v>
       </c>
       <c r="F942" t="s">
         <v>942</v>
@@ -24515,13 +24920,13 @@
         <v>1474</v>
       </c>
       <c r="C943" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D943" t="s">
+        <v>6</v>
+      </c>
+      <c r="E943" t="s">
         <v>1486</v>
-      </c>
-      <c r="D943" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E943" t="s">
-        <v>1487</v>
       </c>
       <c r="F943" t="s">
         <v>942</v>
@@ -24535,13 +24940,13 @@
         <v>1474</v>
       </c>
       <c r="C944" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D944" t="s">
+        <v>6</v>
+      </c>
+      <c r="E944" t="s">
         <v>1488</v>
-      </c>
-      <c r="D944" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E944" t="s">
-        <v>1489</v>
       </c>
       <c r="F944" t="s">
         <v>942</v>
@@ -24558,13 +24963,13 @@
         <v>108</v>
       </c>
       <c r="D945" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E945" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F945" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.25">
@@ -24578,13 +24983,13 @@
         <v>123</v>
       </c>
       <c r="D946" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E946" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F946" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
@@ -24595,16 +25000,16 @@
         <v>125</v>
       </c>
       <c r="C947" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D947" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E947" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F947" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
@@ -24615,13 +25020,13 @@
         <v>125</v>
       </c>
       <c r="C948" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D948" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E948" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F948" t="s">
         <v>942</v>
@@ -24632,19 +25037,19 @@
         <v>1473</v>
       </c>
       <c r="B949" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C949" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D949" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E949" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="F949" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
@@ -24652,19 +25057,19 @@
         <v>1473</v>
       </c>
       <c r="B950" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D950" t="s">
+        <v>83</v>
+      </c>
+      <c r="E950" t="s">
         <v>1588</v>
       </c>
-      <c r="C950" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D950" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E950" t="s">
-        <v>1590</v>
-      </c>
       <c r="F950" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
@@ -24672,19 +25077,19 @@
         <v>1473</v>
       </c>
       <c r="B951" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D951" t="s">
+        <v>83</v>
+      </c>
+      <c r="E951" t="s">
         <v>1594</v>
       </c>
-      <c r="C951" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D951" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E951" t="s">
-        <v>1596</v>
-      </c>
       <c r="F951" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
@@ -24692,19 +25097,19 @@
         <v>1473</v>
       </c>
       <c r="B952" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C952" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D952" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E952" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="F952" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.25">
@@ -24712,19 +25117,19 @@
         <v>1473</v>
       </c>
       <c r="B953" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C953" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D953" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E953" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F953" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.25">
@@ -24732,19 +25137,19 @@
         <v>1473</v>
       </c>
       <c r="B954" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C954" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D954" t="s">
+        <v>6</v>
+      </c>
+      <c r="E954" t="s">
         <v>1606</v>
       </c>
-      <c r="C954" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D954" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E954" t="s">
-        <v>1608</v>
-      </c>
       <c r="F954" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
@@ -24752,19 +25157,19 @@
         <v>1473</v>
       </c>
       <c r="B955" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C955" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D955" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E955" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F955" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.25">
@@ -24772,19 +25177,19 @@
         <v>1473</v>
       </c>
       <c r="B956" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C956" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D956" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E956" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="F956" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.25">
@@ -24792,19 +25197,19 @@
         <v>1473</v>
       </c>
       <c r="B957" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C957" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D957" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E957" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="F957" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.25">
@@ -24812,19 +25217,19 @@
         <v>1473</v>
       </c>
       <c r="B958" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D958" t="s">
+        <v>6</v>
+      </c>
+      <c r="E958" t="s">
         <v>1624</v>
       </c>
-      <c r="C958" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D958" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E958" t="s">
-        <v>1626</v>
-      </c>
       <c r="F958" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
@@ -24832,19 +25237,19 @@
         <v>1473</v>
       </c>
       <c r="B959" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C959" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D959" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E959" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F959" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
@@ -24852,19 +25257,19 @@
         <v>1473</v>
       </c>
       <c r="B960" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D960" t="s">
+        <v>6</v>
+      </c>
+      <c r="E960" t="s">
         <v>1631</v>
       </c>
-      <c r="C960" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D960" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E960" t="s">
-        <v>1633</v>
-      </c>
       <c r="F960" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
@@ -24872,19 +25277,19 @@
         <v>1473</v>
       </c>
       <c r="B961" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D961" t="s">
+        <v>83</v>
+      </c>
+      <c r="E961" t="s">
         <v>1640</v>
       </c>
-      <c r="C961" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D961" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E961" t="s">
-        <v>1642</v>
-      </c>
       <c r="F961" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
@@ -24892,19 +25297,19 @@
         <v>1473</v>
       </c>
       <c r="B962" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D962" t="s">
+        <v>6</v>
+      </c>
+      <c r="E962" t="s">
         <v>1643</v>
       </c>
-      <c r="C962" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D962" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E962" t="s">
-        <v>1645</v>
-      </c>
       <c r="F962" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
@@ -24912,19 +25317,19 @@
         <v>1473</v>
       </c>
       <c r="B963" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D963" t="s">
+        <v>83</v>
+      </c>
+      <c r="E963" t="s">
         <v>1668</v>
       </c>
-      <c r="C963" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D963" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E963" t="s">
-        <v>1670</v>
-      </c>
       <c r="F963" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
@@ -24932,19 +25337,19 @@
         <v>1473</v>
       </c>
       <c r="B964" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C964" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D964" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E964" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F964" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
@@ -24952,16 +25357,16 @@
         <v>1473</v>
       </c>
       <c r="B965" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C965" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D965" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E965" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F965" t="s">
         <v>882</v>
@@ -24978,13 +25383,13 @@
         <v>1328</v>
       </c>
       <c r="D966" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E966" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F966" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
@@ -24998,13 +25403,13 @@
         <v>1330</v>
       </c>
       <c r="D967" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E967" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F967" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
@@ -25018,13 +25423,13 @@
         <v>1332</v>
       </c>
       <c r="D968" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E968" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F968" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
@@ -25035,16 +25440,16 @@
         <v>239</v>
       </c>
       <c r="C969" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D969" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E969" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F969" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
@@ -25055,16 +25460,16 @@
         <v>239</v>
       </c>
       <c r="C970" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D970" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E970" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F970" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
@@ -25075,16 +25480,16 @@
         <v>239</v>
       </c>
       <c r="C971" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D971" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E971" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F971" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
@@ -25095,16 +25500,16 @@
         <v>239</v>
       </c>
       <c r="C972" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D972" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E972" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F972" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
@@ -25115,16 +25520,16 @@
         <v>239</v>
       </c>
       <c r="C973" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D973" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E973" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F973" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
@@ -25138,13 +25543,13 @@
         <v>249</v>
       </c>
       <c r="D974" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E974" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F974" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
@@ -25152,19 +25557,19 @@
         <v>1473</v>
       </c>
       <c r="B975" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D975" t="s">
+        <v>6</v>
+      </c>
+      <c r="E975" t="s">
         <v>1711</v>
       </c>
-      <c r="C975" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D975" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E975" t="s">
-        <v>1713</v>
-      </c>
       <c r="F975" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
@@ -25172,19 +25577,19 @@
         <v>1473</v>
       </c>
       <c r="B976" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C976" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D976" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E976" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F976" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.25">
@@ -25192,19 +25597,19 @@
         <v>1473</v>
       </c>
       <c r="B977" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C977" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D977" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E977" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F977" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.25">
@@ -25212,19 +25617,19 @@
         <v>1473</v>
       </c>
       <c r="B978" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C978" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D978" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E978" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F978" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.25">
@@ -25232,19 +25637,19 @@
         <v>1473</v>
       </c>
       <c r="B979" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C979" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D979" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E979" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="F979" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.25">
@@ -25252,19 +25657,19 @@
         <v>1473</v>
       </c>
       <c r="B980" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C980" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D980" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E980" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F980" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.25">
@@ -25272,19 +25677,19 @@
         <v>1473</v>
       </c>
       <c r="B981" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C981" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D981" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E981" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F981" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
@@ -25292,19 +25697,19 @@
         <v>1473</v>
       </c>
       <c r="B982" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C982" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D982" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E982" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="F982" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
@@ -25312,19 +25717,19 @@
         <v>1473</v>
       </c>
       <c r="B983" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C983" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D983" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E983" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F983" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.25">
@@ -25332,19 +25737,19 @@
         <v>1473</v>
       </c>
       <c r="B984" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C984" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D984" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E984" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F984" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
@@ -25358,10 +25763,10 @@
         <v>4</v>
       </c>
       <c r="D985" t="s">
+        <v>6</v>
+      </c>
+      <c r="E985" t="s">
         <v>1475</v>
-      </c>
-      <c r="E985" t="s">
-        <v>1476</v>
       </c>
       <c r="F985" t="s">
         <v>1038</v>
@@ -25378,10 +25783,10 @@
         <v>20</v>
       </c>
       <c r="D986" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E986" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F986" t="s">
         <v>1038</v>
@@ -25395,13 +25800,13 @@
         <v>1474</v>
       </c>
       <c r="C987" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D987" t="s">
+        <v>6</v>
+      </c>
+      <c r="E987" t="s">
         <v>1478</v>
-      </c>
-      <c r="D987" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E987" t="s">
-        <v>1479</v>
       </c>
       <c r="F987" t="s">
         <v>1038</v>
@@ -25415,13 +25820,13 @@
         <v>1474</v>
       </c>
       <c r="C988" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D988" t="s">
+        <v>6</v>
+      </c>
+      <c r="E988" t="s">
         <v>1480</v>
-      </c>
-      <c r="D988" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E988" t="s">
-        <v>1481</v>
       </c>
       <c r="F988" t="s">
         <v>1038</v>
@@ -25435,13 +25840,13 @@
         <v>1474</v>
       </c>
       <c r="C989" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D989" t="s">
+        <v>6</v>
+      </c>
+      <c r="E989" t="s">
         <v>1482</v>
-      </c>
-      <c r="D989" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E989" t="s">
-        <v>1483</v>
       </c>
       <c r="F989" t="s">
         <v>1038</v>
@@ -25455,13 +25860,13 @@
         <v>1474</v>
       </c>
       <c r="C990" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D990" t="s">
+        <v>6</v>
+      </c>
+      <c r="E990" t="s">
         <v>1484</v>
-      </c>
-      <c r="D990" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E990" t="s">
-        <v>1485</v>
       </c>
       <c r="F990" t="s">
         <v>1038</v>
@@ -25475,13 +25880,13 @@
         <v>1474</v>
       </c>
       <c r="C991" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D991" t="s">
+        <v>6</v>
+      </c>
+      <c r="E991" t="s">
         <v>1486</v>
-      </c>
-      <c r="D991" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E991" t="s">
-        <v>1487</v>
       </c>
       <c r="F991" t="s">
         <v>1038</v>
@@ -25495,13 +25900,13 @@
         <v>1474</v>
       </c>
       <c r="C992" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D992" t="s">
+        <v>6</v>
+      </c>
+      <c r="E992" t="s">
         <v>1488</v>
-      </c>
-      <c r="D992" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E992" t="s">
-        <v>1489</v>
       </c>
       <c r="F992" t="s">
         <v>1038</v>
@@ -25515,16 +25920,16 @@
         <v>125</v>
       </c>
       <c r="C993" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D993" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E993" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F993" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
@@ -25535,13 +25940,13 @@
         <v>125</v>
       </c>
       <c r="C994" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D994" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E994" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F994" t="s">
         <v>1038</v>
@@ -25552,19 +25957,19 @@
         <v>1473</v>
       </c>
       <c r="B995" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C995" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D995" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E995" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="F995" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
@@ -25572,19 +25977,19 @@
         <v>1473</v>
       </c>
       <c r="B996" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C996" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D996" t="s">
+        <v>83</v>
+      </c>
+      <c r="E996" t="s">
         <v>1588</v>
       </c>
-      <c r="C996" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D996" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E996" t="s">
-        <v>1590</v>
-      </c>
       <c r="F996" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.25">
@@ -25592,19 +25997,19 @@
         <v>1473</v>
       </c>
       <c r="B997" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C997" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D997" t="s">
+        <v>83</v>
+      </c>
+      <c r="E997" t="s">
         <v>1594</v>
       </c>
-      <c r="C997" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D997" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E997" t="s">
-        <v>1596</v>
-      </c>
       <c r="F997" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
@@ -25612,19 +26017,19 @@
         <v>1473</v>
       </c>
       <c r="B998" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C998" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D998" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E998" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="F998" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
@@ -25632,19 +26037,19 @@
         <v>1473</v>
       </c>
       <c r="B999" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C999" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D999" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E999" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F999" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
@@ -25652,19 +26057,19 @@
         <v>1473</v>
       </c>
       <c r="B1000" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1000" t="s">
         <v>1606</v>
       </c>
-      <c r="C1000" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D1000" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E1000" t="s">
-        <v>1608</v>
-      </c>
       <c r="F1000" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
@@ -25672,19 +26077,19 @@
         <v>1473</v>
       </c>
       <c r="B1001" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C1001" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D1001" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1001" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F1001" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
@@ -25692,19 +26097,19 @@
         <v>1473</v>
       </c>
       <c r="B1002" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C1002" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D1002" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1002" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="F1002" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
@@ -25712,19 +26117,19 @@
         <v>1473</v>
       </c>
       <c r="B1003" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1003" t="s">
         <v>1624</v>
       </c>
-      <c r="C1003" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E1003" t="s">
-        <v>1626</v>
-      </c>
       <c r="F1003" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
@@ -25732,19 +26137,19 @@
         <v>1473</v>
       </c>
       <c r="B1004" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C1004" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D1004" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1004" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F1004" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
@@ -25752,19 +26157,19 @@
         <v>1473</v>
       </c>
       <c r="B1005" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1005" t="s">
         <v>1643</v>
       </c>
-      <c r="C1005" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1005" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E1005" t="s">
-        <v>1645</v>
-      </c>
       <c r="F1005" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
@@ -25772,19 +26177,19 @@
         <v>1473</v>
       </c>
       <c r="B1006" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1006" t="s">
         <v>1668</v>
       </c>
-      <c r="C1006" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D1006" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E1006" t="s">
-        <v>1670</v>
-      </c>
       <c r="F1006" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
@@ -25792,16 +26197,16 @@
         <v>1473</v>
       </c>
       <c r="B1007" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C1007" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D1007" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1007" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F1007" t="s">
         <v>901</v>
@@ -25818,13 +26223,13 @@
         <v>1328</v>
       </c>
       <c r="D1008" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1008" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F1008" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
@@ -25838,13 +26243,13 @@
         <v>1330</v>
       </c>
       <c r="D1009" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1009" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F1009" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
@@ -25858,13 +26263,13 @@
         <v>1332</v>
       </c>
       <c r="D1010" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1010" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F1010" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -25875,16 +26280,16 @@
         <v>239</v>
       </c>
       <c r="C1011" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D1011" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1011" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F1011" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
@@ -25895,16 +26300,16 @@
         <v>239</v>
       </c>
       <c r="C1012" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D1012" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1012" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F1012" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
@@ -25915,16 +26320,16 @@
         <v>239</v>
       </c>
       <c r="C1013" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D1013" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1013" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F1013" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
@@ -25935,16 +26340,16 @@
         <v>239</v>
       </c>
       <c r="C1014" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D1014" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1014" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F1014" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
@@ -25955,16 +26360,16 @@
         <v>239</v>
       </c>
       <c r="C1015" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D1015" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1015" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F1015" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
@@ -25978,13 +26383,13 @@
         <v>249</v>
       </c>
       <c r="D1016" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1016" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F1016" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
@@ -25992,16 +26397,16 @@
         <v>1473</v>
       </c>
       <c r="B1017" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1017" t="s">
         <v>1594</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E1017" t="s">
-        <v>1596</v>
       </c>
       <c r="F1017" t="s">
         <v>949</v>
@@ -26012,16 +26417,16 @@
         <v>1473</v>
       </c>
       <c r="B1018" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C1018" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D1018" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1018" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="F1018" t="s">
         <v>949</v>
@@ -26032,16 +26437,16 @@
         <v>1473</v>
       </c>
       <c r="B1019" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C1019" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D1019" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1019" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F1019" t="s">
         <v>949</v>
@@ -26052,19 +26457,19 @@
         <v>1473</v>
       </c>
       <c r="B1020" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C1020" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D1020" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1020" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F1020" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
@@ -26078,13 +26483,13 @@
         <v>1328</v>
       </c>
       <c r="D1021" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1021" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F1021" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -26098,13 +26503,13 @@
         <v>1330</v>
       </c>
       <c r="D1022" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1022" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F1022" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
@@ -26118,13 +26523,13 @@
         <v>1332</v>
       </c>
       <c r="D1023" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1023" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F1023" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
@@ -26135,16 +26540,16 @@
         <v>239</v>
       </c>
       <c r="C1024" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D1024" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1024" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F1024" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
@@ -26155,16 +26560,16 @@
         <v>239</v>
       </c>
       <c r="C1025" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D1025" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1025" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F1025" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
@@ -26175,16 +26580,16 @@
         <v>239</v>
       </c>
       <c r="C1026" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D1026" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1026" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F1026" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
@@ -26195,16 +26600,16 @@
         <v>239</v>
       </c>
       <c r="C1027" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D1027" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1027" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F1027" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
@@ -26215,16 +26620,16 @@
         <v>239</v>
       </c>
       <c r="C1028" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D1028" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1028" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F1028" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
@@ -26238,13 +26643,13 @@
         <v>249</v>
       </c>
       <c r="D1029" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1029" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F1029" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
@@ -26258,13 +26663,13 @@
         <v>1328</v>
       </c>
       <c r="D1030" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1030" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F1030" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
@@ -26278,13 +26683,13 @@
         <v>1330</v>
       </c>
       <c r="D1031" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1031" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F1031" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
@@ -26298,13 +26703,13 @@
         <v>1332</v>
       </c>
       <c r="D1032" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1032" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F1032" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
@@ -26315,16 +26720,16 @@
         <v>239</v>
       </c>
       <c r="C1033" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D1033" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1033" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F1033" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
@@ -26335,16 +26740,16 @@
         <v>239</v>
       </c>
       <c r="C1034" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D1034" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1034" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F1034" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
@@ -26355,16 +26760,16 @@
         <v>239</v>
       </c>
       <c r="C1035" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D1035" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1035" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F1035" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
@@ -26375,16 +26780,16 @@
         <v>239</v>
       </c>
       <c r="C1036" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D1036" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1036" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F1036" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
@@ -26395,16 +26800,16 @@
         <v>239</v>
       </c>
       <c r="C1037" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D1037" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1037" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F1037" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
@@ -26418,13 +26823,13 @@
         <v>1328</v>
       </c>
       <c r="D1038" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1038" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F1038" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
@@ -26438,13 +26843,13 @@
         <v>1330</v>
       </c>
       <c r="D1039" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1039" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F1039" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
@@ -26458,13 +26863,13 @@
         <v>1332</v>
       </c>
       <c r="D1040" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1040" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F1040" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
@@ -26475,16 +26880,16 @@
         <v>239</v>
       </c>
       <c r="C1041" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D1041" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1041" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F1041" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
@@ -26495,16 +26900,16 @@
         <v>239</v>
       </c>
       <c r="C1042" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D1042" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1042" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F1042" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
@@ -26515,16 +26920,16 @@
         <v>239</v>
       </c>
       <c r="C1043" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D1043" t="s">
-        <v>1491</v>
+        <v>83</v>
       </c>
       <c r="E1043" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F1043" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
@@ -26535,16 +26940,16 @@
         <v>239</v>
       </c>
       <c r="C1044" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D1044" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1044" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F1044" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
@@ -26555,20 +26960,1740 @@
         <v>239</v>
       </c>
       <c r="C1045" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D1045" t="s">
-        <v>1475</v>
+        <v>6</v>
       </c>
       <c r="E1045" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F1045" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1046">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C1046">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1046" t="s">
         <v>1752</v>
       </c>
+      <c r="F1046" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1085">
+        <v>4.2</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1086">
+        <v>4.2</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1087">
+        <v>4.2</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1088">
+        <v>4.2</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1089">
+        <v>4.2</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1090">
+        <v>4.3</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1091">
+        <v>4.3</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1092">
+        <v>4.3</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1093">
+        <v>4.3</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1094">
+        <v>4.3</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1095">
+        <v>4.3</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1096">
+        <v>4.3</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1097">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1101">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1102">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1104">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>908</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F452" xr:uid="{9C92A6CD-8B8E-4000-B369-F72F091CD094}"/>
+  <autoFilter ref="B1:F1131" xr:uid="{9C92A6CD-8B8E-4000-B369-F72F091CD094}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>